--- a/chinaproject/资料/Type of service - china.xlsx
+++ b/chinaproject/资料/Type of service - china.xlsx
@@ -1,43 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wentao\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8220"/>
+    <workbookView windowWidth="27750" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
   <si>
+    <t>Category(prepay fixed price/hourly rate)</t>
+  </si>
+  <si>
     <t>绑定服务</t>
   </si>
   <si>
     <t>帮家长联系学生</t>
   </si>
   <si>
+    <t>hourly rate</t>
+  </si>
+  <si>
     <t>接机服务</t>
   </si>
   <si>
+    <t>prepay fixed price</t>
+  </si>
+  <si>
     <t>入住宾馆</t>
   </si>
   <si>
@@ -83,6 +82,12 @@
     <t>保险服务</t>
   </si>
   <si>
+    <t>父母来美签证</t>
+  </si>
+  <si>
+    <t>fixed rate</t>
+  </si>
+  <si>
     <t>公司咨询服务</t>
   </si>
   <si>
@@ -92,6 +97,9 @@
     <t>叫车服务</t>
   </si>
   <si>
+    <t>fixed fee</t>
+  </si>
+  <si>
     <t>购买机票服务</t>
   </si>
   <si>
@@ -101,6 +109,9 @@
     <t>驾驶培训</t>
   </si>
   <si>
+    <t>快递业务</t>
+  </si>
+  <si>
     <t>陪同考驾照服务</t>
   </si>
   <si>
@@ -113,6 +124,9 @@
     <t>搬家服务</t>
   </si>
   <si>
+    <t>subcontract</t>
+  </si>
+  <si>
     <t>代驾服务</t>
   </si>
   <si>
@@ -143,55 +157,416 @@
     <t>活动聚会</t>
   </si>
   <si>
+    <t>开除紧急处理</t>
+  </si>
+  <si>
+    <t>hourlyrate</t>
+  </si>
+  <si>
     <t>转学申请</t>
   </si>
   <si>
     <t>美国生活热线</t>
   </si>
   <si>
+    <t>????</t>
+  </si>
+  <si>
     <t>服务信息交流</t>
-  </si>
-  <si>
-    <t>Category(prepay fixed price/hourly rate)</t>
-  </si>
-  <si>
-    <t>hourly rate</t>
-  </si>
-  <si>
-    <t>prepay fixed price</t>
-  </si>
-  <si>
-    <t>fixed fee</t>
-  </si>
-  <si>
-    <t>subcontract</t>
-  </si>
-  <si>
-    <t>????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,29 +574,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -268,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,392 +1140,416 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="37.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A42"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/chinaproject/资料/Type of service - china.xlsx
+++ b/chinaproject/资料/Type of service - china.xlsx
@@ -88,91 +88,91 @@
     <t>fixed rate</t>
   </si>
   <si>
+    <t>非绑定服务</t>
+  </si>
+  <si>
+    <t>叫车服务</t>
+  </si>
+  <si>
+    <t>fixed fee</t>
+  </si>
+  <si>
+    <t>购买机票服务</t>
+  </si>
+  <si>
+    <t>申请驾照服务</t>
+  </si>
+  <si>
+    <t>驾驶培训</t>
+  </si>
+  <si>
+    <t>快递业务</t>
+  </si>
+  <si>
+    <t>陪同考驾照服务</t>
+  </si>
+  <si>
+    <t>另类服务</t>
+  </si>
+  <si>
+    <t>英语私教</t>
+  </si>
+  <si>
+    <t>搬家服务</t>
+  </si>
+  <si>
+    <t>subcontract</t>
+  </si>
+  <si>
+    <t>代驾服务</t>
+  </si>
+  <si>
+    <t>家政服务</t>
+  </si>
+  <si>
+    <t>扫雪服务</t>
+  </si>
+  <si>
+    <t>除草服务</t>
+  </si>
+  <si>
+    <t>翻译服务（书面，陪同）</t>
+  </si>
+  <si>
+    <t>购买/安装家具服务</t>
+  </si>
+  <si>
+    <t>购车服务</t>
+  </si>
+  <si>
+    <t>旅游服务</t>
+  </si>
+  <si>
+    <t>陪读服务</t>
+  </si>
+  <si>
+    <t>活动聚会</t>
+  </si>
+  <si>
+    <t>开除紧急处理</t>
+  </si>
+  <si>
+    <t>hourlyrate</t>
+  </si>
+  <si>
+    <t>转学申请</t>
+  </si>
+  <si>
+    <t>美国生活热线</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>服务信息交流</t>
+  </si>
+  <si>
     <t>公司咨询服务</t>
-  </si>
-  <si>
-    <t>非绑定服务</t>
-  </si>
-  <si>
-    <t>叫车服务</t>
-  </si>
-  <si>
-    <t>fixed fee</t>
-  </si>
-  <si>
-    <t>购买机票服务</t>
-  </si>
-  <si>
-    <t>申请驾照服务</t>
-  </si>
-  <si>
-    <t>驾驶培训</t>
-  </si>
-  <si>
-    <t>快递业务</t>
-  </si>
-  <si>
-    <t>陪同考驾照服务</t>
-  </si>
-  <si>
-    <t>另类服务</t>
-  </si>
-  <si>
-    <t>英语私教</t>
-  </si>
-  <si>
-    <t>搬家服务</t>
-  </si>
-  <si>
-    <t>subcontract</t>
-  </si>
-  <si>
-    <t>代驾服务</t>
-  </si>
-  <si>
-    <t>家政服务</t>
-  </si>
-  <si>
-    <t>扫雪服务</t>
-  </si>
-  <si>
-    <t>除草服务</t>
-  </si>
-  <si>
-    <t>翻译服务（书面，陪同）</t>
-  </si>
-  <si>
-    <t>购买/安装家具服务</t>
-  </si>
-  <si>
-    <t>购车服务</t>
-  </si>
-  <si>
-    <t>旅游服务</t>
-  </si>
-  <si>
-    <t>陪读服务</t>
-  </si>
-  <si>
-    <t>活动聚会</t>
-  </si>
-  <si>
-    <t>开除紧急处理</t>
-  </si>
-  <si>
-    <t>hourlyrate</t>
-  </si>
-  <si>
-    <t>转学申请</t>
-  </si>
-  <si>
-    <t>美国生活热线</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>服务信息交流</t>
   </si>
 </sst>
 </file>
@@ -180,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,12 +212,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,29 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -360,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +374,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,30 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +571,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -610,21 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,163 +673,165 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1146,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -1207,7 +1208,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -1270,10 +1271,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1324,73 +1325,67 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>28</v>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>29</v>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>30</v>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>32</v>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1398,10 +1393,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1409,17 +1404,17 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" t="s">
-        <v>37</v>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1427,8 +1422,8 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>38</v>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1436,26 +1431,26 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>36</v>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>36</v>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
-      <c r="B33" t="s">
-        <v>41</v>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1463,8 +1458,8 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="B34" t="s">
-        <v>42</v>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1472,8 +1467,8 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="B35" t="s">
-        <v>43</v>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1481,8 +1476,8 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
-      <c r="B36" t="s">
-        <v>44</v>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1490,8 +1485,8 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
-      <c r="B37" t="s">
-        <v>45</v>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1499,8 +1494,8 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
-      <c r="B38" t="s">
-        <v>46</v>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1508,17 +1503,17 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>49</v>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1526,20 +1521,28 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" t="s">
-        <v>51</v>
+      <c r="C43" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
